--- a/Datasources/Season_Data/goalies.xlsx
+++ b/Datasources/Season_Data/goalies.xlsx
@@ -1,44 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossh\Projects\CITY_Soccer_Analysis\Datasources\Season_Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEAD9B8A-BA6A-4AB5-8A58-4A3B42C31C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="3348" yWindow="3348" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Goalies" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
-  <si>
-    <t>Unnamed: 0_level_0</t>
-  </si>
-  <si>
-    <t>Unnamed: 1_level_0</t>
-  </si>
-  <si>
-    <t>Unnamed: 2_level_0</t>
-  </si>
-  <si>
-    <t>Unnamed: 3_level_0</t>
-  </si>
-  <si>
-    <t>Playing Time</t>
-  </si>
-  <si>
-    <t>Performance</t>
-  </si>
-  <si>
-    <t>Penalty Kicks</t>
-  </si>
-  <si>
-    <t>Unnamed: 23_level_0</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>Player</t>
   </si>
@@ -140,13 +122,16 @@
   </si>
   <si>
     <t>28.0</t>
+  </si>
+  <si>
+    <t>Player ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,13 +194,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -253,7 +246,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -287,6 +280,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -321,9 +315,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -496,15 +491,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -520,149 +519,251 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2">
+        <v>33</v>
+      </c>
+      <c r="G2">
+        <v>33</v>
+      </c>
+      <c r="H2">
+        <v>2970</v>
+      </c>
+      <c r="I2">
+        <v>33</v>
+      </c>
+      <c r="J2">
+        <v>42</v>
+      </c>
+      <c r="K2">
+        <v>1.27</v>
+      </c>
+      <c r="L2">
+        <v>163</v>
+      </c>
+      <c r="M2">
+        <v>123</v>
+      </c>
+      <c r="N2">
+        <v>78.5</v>
+      </c>
+      <c r="O2">
+        <v>17</v>
+      </c>
+      <c r="P2">
         <v>5</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1" t="s">
+      <c r="Q2">
+        <v>11</v>
+      </c>
+      <c r="R2">
+        <v>8</v>
+      </c>
+      <c r="S2">
+        <v>24.2</v>
+      </c>
+      <c r="T2">
         <v>7</v>
       </c>
+      <c r="U2">
+        <v>7</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" s="1" t="s">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>90</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>7</v>
+      </c>
+      <c r="M3">
+        <v>4</v>
+      </c>
+      <c r="N3">
+        <v>57.1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S2" s="1" t="s">
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>37</v>
-      </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H4">
-        <v>2970</v>
+        <v>3060</v>
       </c>
       <c r="I4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K4">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="L4">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="M4">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="N4">
-        <v>78.5</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="O4">
         <v>17</v>
@@ -671,13 +772,13 @@
         <v>5</v>
       </c>
       <c r="Q4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R4">
         <v>8</v>
       </c>
       <c r="S4">
-        <v>24.2</v>
+        <v>23.5</v>
       </c>
       <c r="T4">
         <v>7</v>
@@ -694,73 +795,64 @@
       <c r="X4">
         <v>0</v>
       </c>
-      <c r="Y4" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="H5">
-        <v>90</v>
+        <v>3056</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1.83</v>
       </c>
       <c r="L5">
-        <v>7</v>
+        <v>172</v>
       </c>
       <c r="M5">
-        <v>4</v>
+        <v>113</v>
       </c>
       <c r="N5">
-        <v>57.1</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>23.5</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -768,152 +860,11 @@
       <c r="W5">
         <v>0</v>
       </c>
-      <c r="Y5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25">
-      <c r="A6" s="1">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6">
-        <v>34</v>
-      </c>
-      <c r="G6">
-        <v>34</v>
-      </c>
-      <c r="H6">
-        <v>3060</v>
-      </c>
-      <c r="I6">
-        <v>34</v>
-      </c>
-      <c r="J6">
-        <v>45</v>
-      </c>
-      <c r="K6">
-        <v>1.32</v>
-      </c>
-      <c r="L6">
-        <v>170</v>
-      </c>
-      <c r="M6">
-        <v>127</v>
-      </c>
-      <c r="N6">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="O6">
-        <v>17</v>
-      </c>
-      <c r="P6">
-        <v>5</v>
-      </c>
-      <c r="Q6">
-        <v>12</v>
-      </c>
-      <c r="R6">
-        <v>8</v>
-      </c>
-      <c r="S6">
-        <v>23.5</v>
-      </c>
-      <c r="T6">
-        <v>7</v>
-      </c>
-      <c r="U6">
-        <v>7</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25">
-      <c r="A7" s="1">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7">
-        <v>34</v>
-      </c>
-      <c r="G7">
-        <v>34</v>
-      </c>
-      <c r="H7">
-        <v>3056</v>
-      </c>
-      <c r="I7">
-        <v>34</v>
-      </c>
-      <c r="J7">
-        <v>62</v>
-      </c>
-      <c r="K7">
-        <v>1.83</v>
-      </c>
-      <c r="L7">
-        <v>172</v>
-      </c>
-      <c r="M7">
-        <v>113</v>
-      </c>
-      <c r="N7">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="O7">
-        <v>12</v>
-      </c>
-      <c r="P7">
-        <v>5</v>
-      </c>
-      <c r="Q7">
-        <v>17</v>
-      </c>
-      <c r="R7">
-        <v>8</v>
-      </c>
-      <c r="S7">
-        <v>23.5</v>
-      </c>
-      <c r="T7">
-        <v>5</v>
-      </c>
-      <c r="U7">
-        <v>5</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
+      <c r="X5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:S1"/>
-    <mergeCell ref="T1:X1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>